--- a/template/vscode-extensions.xlsx
+++ b/template/vscode-extensions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/techinfo/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C82F0D-FC5D-C247-A24F-CA1C326EA78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D6BC4A-A28D-4B47-B719-887D3CAC840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{733C91BD-60E6-6E47-A14A-7FEC4FE2EF31}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Description</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>[https://marketplace.visualstudio.com/items?itemName=rangav.vscode-thunder-client](https://marketplace.visualstudio.com/items?itemName=rangav.vscode-thunder-client)</t>
+  </si>
+  <si>
+    <t>Out of code Insights</t>
+  </si>
+  <si>
+    <t>Permet de faire l'annotation de code sans encombrer le code source.</t>
+  </si>
+  <si>
+    <t>[https://marketplace.visualstudio.com/items?itemName=JacquesGariepy.out-of-code-insights|(https://marketplace.visualstudio.com/items?itemName=JacquesGariepy.out-of-code-insights)</t>
   </si>
 </sst>
 </file>
@@ -545,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E718306-AAFE-E841-A9E0-09E63332D28E}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,89 +623,100 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
-    <sortCondition ref="A2:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
+    <sortCondition ref="A2:A13"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://marketplace.visualstudio.com/items?itemName=naumovs.color-highlight" xr:uid="{DAEF95D9-B1B6-3F4D-B6FA-E307A99AE8F3}"/>
     <hyperlink ref="C5" r:id="rId2" display="https://marketplace.visualstudio.com/items?itemName=ritwickdey.LiveServer" xr:uid="{C5A58833-D6E0-D949-AB1E-6838987350AD}"/>
-    <hyperlink ref="C7" r:id="rId3" display="https://marketplace.visualstudio.com/items?itemName=esbenp.prettier-vscode" xr:uid="{74F92E3E-57B1-6547-9D02-B14E52B20BE7}"/>
+    <hyperlink ref="C8" r:id="rId3" display="https://marketplace.visualstudio.com/items?itemName=esbenp.prettier-vscode" xr:uid="{74F92E3E-57B1-6547-9D02-B14E52B20BE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/template/vscode-extensions.xlsx
+++ b/template/vscode-extensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/techinfo/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D6BC4A-A28D-4B47-B719-887D3CAC840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD424DC-0DF6-3440-A645-9BB9B1768A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{733C91BD-60E6-6E47-A14A-7FEC4FE2EF31}"/>
   </bookViews>
@@ -164,7 +164,7 @@
     <t>Permet de faire l'annotation de code sans encombrer le code source.</t>
   </si>
   <si>
-    <t>[https://marketplace.visualstudio.com/items?itemName=JacquesGariepy.out-of-code-insights|(https://marketplace.visualstudio.com/items?itemName=JacquesGariepy.out-of-code-insights)</t>
+    <t>[https://marketplace.visualstudio.com/items?itemName=JacquesGariepy.out-of-code-insights](https://marketplace.visualstudio.com/items?itemName=JacquesGariepy.out-of-code-insights)</t>
   </si>
 </sst>
 </file>
